--- a/0#TwoPointers ideas.xlsx
+++ b/0#TwoPointers ideas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\aurgent\Techniqueue_I_Learn\my work on technique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\desktop collection\aurgent\collection of my work\Techniqueue_I_Learn\my work on technique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DFA46B-3A87-4380-BBDB-9EC5656B95F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445187D3-CA7E-4ED1-9D8C-D9EFDDF365EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>https://codeforces.com/problemset/problem/279/B</t>
   </si>
@@ -112,6 +112,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Problem Link</t>
+  </si>
+  <si>
+    <t>B. Wrath</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/892/B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last one previous </t>
+  </si>
+  <si>
+    <t>Sphere(Array-Sub - SubArrays)</t>
+  </si>
+  <si>
+    <t>https://www.spoj.com/problems/ARRAYSUB/</t>
+  </si>
+  <si>
+    <t>max element in a fixed window</t>
+  </si>
+  <si>
+    <t>HOTELS - Hotels Along the Croatian Coast</t>
+  </si>
+  <si>
+    <t>https://www.spoj.com/problems/HOTELS/</t>
+  </si>
+  <si>
+    <t>max window sum less than K</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/701/C</t>
+  </si>
+  <si>
+    <t>Min_Sub_String_Contain_Particular_Sub_String</t>
+  </si>
+  <si>
+    <t>C. They Are Everywhere</t>
   </si>
 </sst>
 </file>
@@ -488,12 +524,12 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.375" customWidth="1"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
     <col min="2" max="2" width="55.875" customWidth="1"/>
     <col min="3" max="3" width="50.625" customWidth="1"/>
     <col min="4" max="4" width="50.25" customWidth="1"/>
@@ -666,10 +702,16 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -678,10 +720,16 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -690,10 +738,16 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -702,10 +756,16 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -866,8 +926,10 @@
     <hyperlink ref="B7" r:id="rId5" xr:uid="{31F0FD88-1FDD-45FB-A573-CE80CC56EF0A}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{601F16DD-EECC-4ACD-B49F-8567C112D5D5}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{7866B942-89F4-4881-BBAD-CD099A11D9B0}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{812A9814-3D0A-4032-B0A0-E8A82A2368D8}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{A6403300-F681-410F-BB94-6652E4018A2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>